--- a/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
+++ b/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dryan\OneDrive\Documents\GitHub\CampScheduler\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D25CB1-0F55-4354-ADCB-1D39F96766BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12193CC4-5B14-4972-8D4B-BDB2D637D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="4" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
   </bookViews>
   <sheets>
     <sheet name="DayInputEmpty" sheetId="2" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482F8C11-A64A-4254-A7A9-8102F6EDAC68}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
+    <sheetView zoomScale="41" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -6708,8 +6708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4063B8-5AB2-48E8-AFD3-3A298C84A064}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>30</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>30</v>

--- a/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
+++ b/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dryan\OneDrive\Documents\GitHub\CampScheduler\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12193CC4-5B14-4972-8D4B-BDB2D637D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA9C34-0974-40F7-82A9-E4A3AF24C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="4" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="115">
   <si>
     <t>BLOCKS TABLE</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>Thursday</t>
@@ -6708,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4063B8-5AB2-48E8-AFD3-3A298C84A064}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8044,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -8118,7 +8115,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -8464,7 +8461,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -8538,7 +8535,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -8612,7 +8609,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -8686,7 +8683,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
@@ -8760,7 +8757,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -8834,7 +8831,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
@@ -8898,7 +8895,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
@@ -8962,7 +8959,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
@@ -9010,7 +9007,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -9058,7 +9055,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -9106,7 +9103,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
@@ -9154,7 +9151,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>39</v>
@@ -9202,7 +9199,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>51</v>
@@ -9250,7 +9247,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>54</v>

--- a/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
+++ b/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dryan\OneDrive\Documents\GitHub\CampScheduler\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA9C34-0974-40F7-82A9-E4A3AF24C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A831AA3-708C-4308-BF86-341250D847DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="4" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="3" activeTab="6" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
   </bookViews>
   <sheets>
     <sheet name="DayInputEmpty" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="DayInputExample2" sheetId="3" r:id="rId3"/>
     <sheet name="WeekInputEmpty" sheetId="5" r:id="rId4"/>
     <sheet name="WeekInputExample" sheetId="4" r:id="rId5"/>
+    <sheet name="BumpInputEmpty" sheetId="6" r:id="rId6"/>
+    <sheet name="BumpInputExample" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="172">
   <si>
     <t>BLOCKS TABLE</t>
   </si>
@@ -351,9 +353,6 @@
     <t>Day Of Week</t>
   </si>
   <si>
-    <t>Blocks Table</t>
-  </si>
-  <si>
     <t>Open? (Days/n)</t>
   </si>
   <si>
@@ -385,6 +384,180 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>Open (y/n)</t>
+  </si>
+  <si>
+    <t># of Paid</t>
+  </si>
+  <si>
+    <t># of Unpaid</t>
+  </si>
+  <si>
+    <t>COUNSELORS TABLE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Paid (y/n)</t>
+  </si>
+  <si>
+    <t>Handicap (y/n)</t>
+  </si>
+  <si>
+    <t>Rockwall</t>
+  </si>
+  <si>
+    <t>Go Karts</t>
+  </si>
+  <si>
+    <t>Bungee</t>
+  </si>
+  <si>
+    <t>Overflow (y/n)</t>
+  </si>
+  <si>
+    <t>Rover</t>
+  </si>
+  <si>
+    <t>Kyra</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandon C</t>
+  </si>
+  <si>
+    <t>Samantha M</t>
+  </si>
+  <si>
+    <t>Brandon B</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Caden</t>
+  </si>
+  <si>
+    <t>Nia</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Sammi</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Kourtney</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Carmel</t>
+  </si>
+  <si>
+    <t>Brayden</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Madeline</t>
+  </si>
+  <si>
+    <t>Samantha T</t>
+  </si>
+  <si>
+    <t>Aida</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Emmett</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Oskar</t>
+  </si>
+  <si>
+    <t>Brianna</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Changing Room (m/f)</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Required (n/m/f/b)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Working (y/n)</t>
+  </si>
+  <si>
+    <t>Accessible (y/n)</t>
   </si>
 </sst>
 </file>
@@ -5493,7 +5666,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5567,7 +5740,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5610,7 +5783,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>19</v>
@@ -5641,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
@@ -6705,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4063B8-5AB2-48E8-AFD3-3A298C84A064}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6780,7 +6953,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -6823,7 +6996,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>19</v>
@@ -6854,12 +7027,12 @@
         <v>26</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -6905,7 +7078,7 @@
         <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>30</v>
@@ -6936,12 +7109,12 @@
         <v>34</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -6987,7 +7160,7 @@
         <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>30</v>
@@ -7018,12 +7191,12 @@
         <v>39</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -7069,7 +7242,7 @@
         <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>30</v>
@@ -7100,12 +7273,12 @@
         <v>45</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -7151,7 +7324,7 @@
         <v>28</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>30</v>
@@ -7182,12 +7355,12 @@
         <v>34</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>39</v>
@@ -7233,7 +7406,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>30</v>
@@ -7264,12 +7437,12 @@
         <v>46</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
@@ -7346,12 +7519,12 @@
         <v>46</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -7397,7 +7570,7 @@
         <v>28</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>30</v>
@@ -7425,7 +7598,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -7499,7 +7672,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
@@ -7573,7 +7746,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -7647,7 +7820,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -7721,7 +7894,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -7795,7 +7968,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
@@ -7869,7 +8042,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -7943,7 +8116,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -7989,7 +8162,7 @@
         <v>71</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>28</v>
@@ -8017,7 +8190,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
@@ -8091,7 +8264,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -8137,7 +8310,7 @@
         <v>28</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>28</v>
@@ -8165,7 +8338,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
@@ -8239,7 +8412,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
@@ -8313,7 +8486,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
@@ -8359,7 +8532,7 @@
         <v>71</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>28</v>
@@ -8387,7 +8560,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
@@ -8433,7 +8606,7 @@
         <v>28</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>30</v>
@@ -8461,7 +8634,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -8507,7 +8680,7 @@
         <v>32</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>30</v>
@@ -8535,7 +8708,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -8609,7 +8782,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -8655,7 +8828,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>30</v>
@@ -8683,7 +8856,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
@@ -8757,7 +8930,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -8831,7 +9004,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
@@ -8877,7 +9050,7 @@
         <v>28</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>30</v>
@@ -8895,7 +9068,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
@@ -8941,7 +9114,7 @@
         <v>32</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>28</v>
@@ -8959,7 +9132,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
@@ -9007,7 +9180,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -9055,7 +9228,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -9103,7 +9276,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
@@ -9151,7 +9324,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>39</v>
@@ -9199,7 +9372,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>51</v>
@@ -9247,7 +9420,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>54</v>
@@ -9298,4 +9471,1786 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD40F2-5D22-48F8-8B48-C8647A2B12E2}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.53125" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" customWidth="1"/>
+    <col min="14" max="14" width="8.73046875" customWidth="1"/>
+    <col min="15" max="15" width="18.86328125" customWidth="1"/>
+    <col min="16" max="16" width="8.9296875" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73B9413-F07E-4107-8FDB-C664E499123E}">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="1"/>
+    <col min="15" max="15" width="20.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.06640625" style="1"/>
+    <col min="17" max="17" width="14.86328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.9296875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="M30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="M31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="M32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="M1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
+++ b/CampScheduler/CampScheduler/CampSchedulerInputExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dryan\OneDrive\Documents\GitHub\CampScheduler\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A831AA3-708C-4308-BF86-341250D847DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD44EA-786E-4FB3-B084-B55F94D1640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="3" activeTab="6" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
+    <workbookView xWindow="2588" yWindow="2498" windowWidth="16200" windowHeight="9307" firstSheet="4" activeTab="6" xr2:uid="{0861955A-A212-4BF4-8127-4D8CB03931E6}"/>
   </bookViews>
   <sheets>
     <sheet name="DayInputEmpty" sheetId="2" r:id="rId1"/>
@@ -6878,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4063B8-5AB2-48E8-AFD3-3A298C84A064}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9715,7 +9715,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9820,7 +9820,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -9832,10 +9832,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -9882,10 +9882,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -10020,7 +10020,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -10082,7 +10082,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -10463,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>28</v>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>28</v>
@@ -10832,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>28</v>
@@ -10870,7 +10870,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -10911,7 +10911,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
